--- a/data/trans_camb/IP1016-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1016-Habitat-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,15</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,15</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">

--- a/data/trans_camb/IP1016-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1016-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>0,0; 3,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,42</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,15</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
     </row>
@@ -1424,12 +1424,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,46</t>
+          <t>0,0; 0,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,48</t>
+          <t>0,0; 0,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,27</t>
+          <t>0,0; 0,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,27</t>
+          <t>0,0; 0,33</t>
         </is>
       </c>
     </row>
@@ -1521,6 +1521,13 @@
       <c r="H27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1016-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1016-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,33</t>
+          <t>0,0; 3,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,51</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,01</t>
+          <t>0,0; 0,92</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,48</t>
+          <t>0,0; 0,53</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,58</t>
+          <t>0,0; 0,64</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,33</t>
+          <t>0,0; 0,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1016-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1016-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -767,22 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,15</t>
         </is>
       </c>
     </row>
@@ -843,22 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,92</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1240,17 +1240,17 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,27</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1316,17 +1316,17 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1369,170 +1369,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,53</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,64</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,23</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
